--- a/시장분석용_정보/시장분석용_4574031000.xlsx
+++ b/시장분석용_정보/시장분석용_4574031000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 4029062315</t>
   </si>
   <si>
@@ -175,16 +265,16 @@
     <t>202205 4029062315</t>
   </si>
   <si>
+    <t>JDQ4MTYyMiM2MSMkMiMkNiMkMDAkMzgxMzUxIzUxIyQxIyQxIyQ5OSQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
     <t>한독의원</t>
   </si>
   <si>
-    <t>전라북도 장수군 산서면 비행로 25-1</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM2MSMkMiMkNiMkMDAkMzgxMzUxIzUxIyQxIyQxIyQ5OSQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>전라북도 장수군 산서면 비행로 25-1 ()</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -545,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,43 +738,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>17566</v>
+        <v>1166</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>39902531</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>4029062315</v>
       </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2">
+        <v>86</v>
+      </c>
+      <c r="J2">
         <v>4574031000</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
       </c>
       <c r="M2">
         <v>82563</v>
@@ -696,7 +876,7 @@
         <v>3180</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -705,87 +885,177 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>47.17</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>52.83</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>37.74</v>
+      </c>
+      <c r="Z2">
+        <v>52.83</v>
+      </c>
+      <c r="AA2">
         <v>9.43</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>9.43</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>37.74</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>43.4</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>9.43</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
         <v>47.17</v>
       </c>
-      <c r="AE2">
+      <c r="AU2">
         <v>18.87</v>
       </c>
-      <c r="AF2">
+      <c r="AV2">
         <v>33.96</v>
       </c>
-      <c r="AG2">
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>37.74</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>9.43</v>
+      </c>
+      <c r="BB2">
+        <v>43.4</v>
+      </c>
+      <c r="BC2">
+        <v>9.43</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>37.74</v>
+      </c>
+      <c r="BG2">
+        <v>9.43</v>
+      </c>
+      <c r="BH2">
+        <v>9.43</v>
+      </c>
+      <c r="BI2">
+        <v>81.13</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>39055</v>
+        <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>39902531</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>4029062315</v>
       </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3">
+        <v>86</v>
+      </c>
+      <c r="J3">
         <v>4574031000</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
       </c>
       <c r="M3">
         <v>92687</v>
@@ -797,7 +1067,7 @@
         <v>8250</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -818,75 +1088,165 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>90.91</v>
       </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>100</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>9.09</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>90.91</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
         <v>9.09</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>90.91</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>90.91</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>9.09</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>9.09</v>
+      </c>
+      <c r="BH3">
+        <v>9.09</v>
+      </c>
+      <c r="BI3">
+        <v>9.09</v>
+      </c>
+      <c r="BJ3">
+        <v>100</v>
+      </c>
+      <c r="BK3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>60438</v>
+        <v>4832</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>39902531</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>4029062315</v>
       </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4">
+        <v>86</v>
+      </c>
+      <c r="J4">
         <v>4574031000</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>87</v>
       </c>
       <c r="M4">
         <v>31201</v>
@@ -898,7 +1258,7 @@
         <v>3150</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -907,87 +1267,177 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>76.19</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>23.81</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>76.19</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>23.81</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>23.81</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>76.19</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>23.81</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>76.19</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>76.19</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>23.81</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>23.81</v>
+      </c>
+      <c r="BH4">
+        <v>23.81</v>
+      </c>
+      <c r="BI4">
+        <v>23.81</v>
+      </c>
+      <c r="BJ4">
+        <v>50</v>
+      </c>
+      <c r="BK4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>81895</v>
+        <v>6649</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>39902531</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>4029062315</v>
       </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5">
+        <v>86</v>
+      </c>
+      <c r="J5">
         <v>4574031000</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>87</v>
       </c>
       <c r="M5">
         <v>88753</v>
@@ -999,7 +1449,7 @@
         <v>2933</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1008,87 +1458,177 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>8.52</v>
       </c>
       <c r="T5">
+        <v>35.8</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>47.16</v>
+      </c>
+      <c r="W5">
+        <v>8.52</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>74.43000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>25.57</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>64.2</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>27.27</v>
       </c>
-      <c r="X5">
+      <c r="AN5">
         <v>8.52</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>64.2</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>8.52</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>27.27</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>35.8</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>64.2</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>17.05</v>
+      </c>
+      <c r="BH5">
+        <v>17.05</v>
+      </c>
+      <c r="BI5">
+        <v>91.48</v>
+      </c>
+      <c r="BJ5">
+        <v>50</v>
+      </c>
+      <c r="BK5">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>103540</v>
+        <v>8480</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>39902531</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>4029062315</v>
       </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6">
+        <v>86</v>
+      </c>
+      <c r="J6">
         <v>4574031000</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
       </c>
       <c r="M6">
         <v>94922</v>
@@ -1100,96 +1640,186 @@
         <v>3067</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="Q6">
+        <v>8.15</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.3</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>19.02</v>
+      </c>
+      <c r="V6">
         <v>29.35</v>
       </c>
-      <c r="R6">
+      <c r="W6">
+        <v>35.33</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>62.5</v>
+      </c>
+      <c r="AA6">
+        <v>37.5</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>29.35</v>
+      </c>
+      <c r="AH6">
         <v>19.02</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>8.15</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>43.48</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>37.5</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
         <v>62.5</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>29.35</v>
+      </c>
+      <c r="AY6">
+        <v>19.02</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>43.48</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>8.15</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>29.35</v>
+      </c>
+      <c r="BG6">
+        <v>19.02</v>
+      </c>
+      <c r="BH6">
+        <v>48.37</v>
+      </c>
+      <c r="BI6">
+        <v>48.37</v>
+      </c>
+      <c r="BJ6">
+        <v>40</v>
+      </c>
+      <c r="BK6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>168713</v>
+        <v>13967</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7">
         <v>202008</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>39902531</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>4029062315</v>
       </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7">
+        <v>86</v>
+      </c>
+      <c r="J7">
         <v>4574031000</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
       </c>
       <c r="M7">
         <v>45780</v>
@@ -1201,29 +1831,29 @@
         <v>4500</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>61.11</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>38.89</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
         <v>0</v>
       </c>
@@ -1231,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1243,54 +1873,144 @@
         <v>0</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>61.11</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>38.89</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
         <v>100</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>61.11</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>38.89</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>61.11</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>38.89</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>190427</v>
+        <v>15802</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8">
         <v>202009</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>39902531</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>4029062315</v>
       </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8">
+        <v>86</v>
+      </c>
+      <c r="J8">
         <v>4574031000</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
       </c>
       <c r="M8">
         <v>293591</v>
@@ -1302,37 +2022,37 @@
         <v>25750</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>97.09</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>97.09</v>
       </c>
-      <c r="T8">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>2.91</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>97.09</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1341,57 +2061,147 @@
         <v>0</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>97.09</v>
+      </c>
+      <c r="AJ8">
         <v>2.91</v>
       </c>
-      <c r="AD8">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>2.91</v>
+      </c>
+      <c r="AT8">
         <v>97.09</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>97.09</v>
+      </c>
+      <c r="BC8">
+        <v>2.91</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>2.91</v>
+      </c>
+      <c r="BH8">
+        <v>2.91</v>
+      </c>
+      <c r="BI8">
+        <v>2.91</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>233958</v>
+        <v>19477</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9">
         <v>202011</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>39902531</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>4029062315</v>
       </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9">
+        <v>86</v>
+      </c>
+      <c r="J9">
         <v>4574031000</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
       </c>
       <c r="M9">
         <v>106405</v>
@@ -1403,96 +2213,186 @@
         <v>4180</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>52.15</v>
+      </c>
+      <c r="U9">
+        <v>47.85</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>47.85</v>
+      </c>
+      <c r="Z9">
+        <v>52.15</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>45.45</v>
       </c>
-      <c r="S9">
+      <c r="AI9">
         <v>4.78</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
         <v>25.84</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>23.92</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>4.78</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
         <v>69.38</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>25.84</v>
       </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>25.84</v>
+      </c>
+      <c r="BA9">
+        <v>69.38</v>
+      </c>
+      <c r="BB9">
+        <v>4.78</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>45.45</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>30.62</v>
+      </c>
+      <c r="BH9">
+        <v>30.62</v>
+      </c>
+      <c r="BI9">
+        <v>54.55</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>255803</v>
+        <v>21321</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10">
         <v>202012</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>39902531</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>4029062315</v>
       </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10">
+        <v>86</v>
+      </c>
+      <c r="J10">
         <v>4574031000</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
       </c>
       <c r="M10">
         <v>91560</v>
@@ -1504,96 +2404,186 @@
         <v>4500</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>61.67</v>
       </c>
       <c r="Q10">
+        <v>38.33</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>22.78</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>38.89</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>38.33</v>
+      </c>
+      <c r="Y10">
+        <v>77.22</v>
+      </c>
+      <c r="Z10">
+        <v>22.78</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>91.67</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
         <v>8.33</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
         <v>61.67</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>38.33</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>53.33</v>
+      </c>
+      <c r="AY10">
+        <v>38.33</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>8.33</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>53.33</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>277621</v>
+        <v>23154</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11">
         <v>202101</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2021</v>
       </c>
-      <c r="E11">
-        <v>39902531</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>4029062315</v>
       </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11">
+        <v>86</v>
+      </c>
+      <c r="J11">
         <v>4574031000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
       </c>
       <c r="M11">
         <v>793894</v>
@@ -1605,7 +2595,7 @@
         <v>31200</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1614,87 +2604,177 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>16.67</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>32.05</v>
+      </c>
+      <c r="W11">
+        <v>51.28</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>46.79</v>
+      </c>
+      <c r="Z11">
+        <v>53.21</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>64.09999999999999</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>21.15</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>14.74</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>32.05</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>16.67</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
         <v>32.05</v>
       </c>
-      <c r="AG11">
+      <c r="AW11">
         <v>19.23</v>
       </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>1.92</v>
+      </c>
+      <c r="BB11">
+        <v>83.33</v>
+      </c>
+      <c r="BC11">
+        <v>14.74</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>32.05</v>
+      </c>
+      <c r="BH11">
+        <v>32.05</v>
+      </c>
+      <c r="BI11">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="BJ11">
+        <v>20</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>343370</v>
+        <v>28667</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12">
         <v>202104</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2021</v>
       </c>
-      <c r="E12">
-        <v>39902531</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>4029062315</v>
       </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12">
+        <v>86</v>
+      </c>
+      <c r="J12">
         <v>4574031000</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
       </c>
       <c r="M12">
         <v>96166</v>
@@ -1706,96 +2786,186 @@
         <v>3620</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>33.15</v>
+      </c>
+      <c r="T12">
+        <v>27.62</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>39.23</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="Z12">
+        <v>75.14</v>
+      </c>
+      <c r="AA12">
+        <v>16.57</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>30.94</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>8.289999999999999</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>27.62</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>33.15</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>8.289999999999999</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>64.09</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
         <v>27.62</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>27.62</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>30.94</v>
+      </c>
+      <c r="BA12">
+        <v>33.15</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="BH12">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="BI12">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>365409</v>
+        <v>30523</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13">
         <v>202105</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2021</v>
       </c>
-      <c r="E13">
-        <v>39902531</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>4029062315</v>
       </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13">
+        <v>86</v>
+      </c>
+      <c r="J13">
         <v>4574031000</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
       </c>
       <c r="M13">
         <v>375497</v>
@@ -1807,7 +2977,7 @@
         <v>16600</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1816,87 +2986,177 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>20.18</v>
+      </c>
+      <c r="T13">
+        <v>77.56</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>2.26</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>20.18</v>
+      </c>
+      <c r="Z13">
         <v>75.3</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="AA13">
+        <v>4.52</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>75.3</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>24.7</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
         <v>4.52</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>20.18</v>
       </c>
-      <c r="AF13">
+      <c r="AV13">
         <v>75.3</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>24.7</v>
+      </c>
+      <c r="BB13">
+        <v>75.3</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>20.18</v>
+      </c>
+      <c r="BH13">
+        <v>20.18</v>
+      </c>
+      <c r="BI13">
+        <v>95.48</v>
+      </c>
+      <c r="BJ13">
+        <v>33.3</v>
+      </c>
+      <c r="BK13">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>387521</v>
+        <v>32374</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14">
         <v>202106</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="E14">
-        <v>39902531</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>4029062315</v>
       </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14">
+        <v>86</v>
+      </c>
+      <c r="J14">
         <v>4574031000</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>87</v>
       </c>
       <c r="M14">
         <v>117256</v>
@@ -1908,7 +3168,7 @@
         <v>5350</v>
       </c>
       <c r="P14">
-        <v>67.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1923,13 +3183,13 @@
         <v>7.01</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>36.92</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>25.7</v>
+        <v>56.07</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -1941,63 +3201,153 @@
         <v>67.29000000000001</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>32.71</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>7.01</v>
       </c>
-      <c r="AD14">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
         <v>25.7</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>7.01</v>
+      </c>
+      <c r="AT14">
+        <v>25.7</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>25.7</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>7.01</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>74.3</v>
+      </c>
+      <c r="BH14">
+        <v>74.3</v>
+      </c>
+      <c r="BI14">
+        <v>100</v>
+      </c>
+      <c r="BJ14">
+        <v>33.3</v>
+      </c>
+      <c r="BK14">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>409642</v>
+        <v>34221</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15">
         <v>202107</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="E15">
-        <v>39902531</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>4029062315</v>
       </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15">
+        <v>86</v>
+      </c>
+      <c r="J15">
         <v>4574031000</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>87</v>
       </c>
       <c r="M15">
         <v>572745</v>
@@ -2009,96 +3359,186 @@
         <v>19000</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>95.53</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="R15">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>87.72</v>
       </c>
       <c r="T15">
+        <v>1.49</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>6.32</v>
+      </c>
+      <c r="X15">
+        <v>4.47</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>9.65</v>
+      </c>
+      <c r="AA15">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>4.47</v>
+      </c>
+      <c r="AI15">
+        <v>87.72</v>
+      </c>
+      <c r="AJ15">
         <v>4.12</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
         <v>3.68</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>91.84</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
         <v>4.47</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
         <v>3.68</v>
       </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>8.16</v>
+      </c>
+      <c r="BB15">
+        <v>87.72</v>
+      </c>
+      <c r="BC15">
+        <v>4.12</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>95.53</v>
+      </c>
+      <c r="BH15">
+        <v>95.53</v>
+      </c>
+      <c r="BI15">
+        <v>100</v>
+      </c>
+      <c r="BJ15">
+        <v>25</v>
+      </c>
+      <c r="BK15">
+        <v>50</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>431794</v>
+        <v>36073</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16">
         <v>202108</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>39902531</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>4029062315</v>
       </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16">
+        <v>86</v>
+      </c>
+      <c r="J16">
         <v>4574031000</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
       </c>
       <c r="M16">
         <v>177436</v>
@@ -2110,96 +3550,186 @@
         <v>6720</v>
       </c>
       <c r="P16">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>14.29</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>4.46</v>
+      </c>
+      <c r="U16">
+        <v>46.13</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>35.12</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="X16">
+        <v>14.29</v>
+      </c>
+      <c r="Y16">
+        <v>70.83</v>
+      </c>
+      <c r="Z16">
+        <v>24.7</v>
+      </c>
+      <c r="AA16">
+        <v>4.46</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>35.12</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>46.13</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
         <v>18.75</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
         <v>35.12</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
         <v>50.6</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
         <v>14.29</v>
       </c>
+      <c r="AX16">
+        <v>35.12</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>18.75</v>
+      </c>
+      <c r="BB16">
+        <v>46.13</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>35.12</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>49.4</v>
+      </c>
+      <c r="BH16">
+        <v>49.4</v>
+      </c>
+      <c r="BI16">
+        <v>53.87</v>
+      </c>
+      <c r="BJ16">
+        <v>50</v>
+      </c>
+      <c r="BK16">
+        <v>25</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>453976</v>
+        <v>37927</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17">
         <v>202109</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>39902531</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>4029062315</v>
       </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17">
+        <v>86</v>
+      </c>
+      <c r="J17">
         <v>4574031000</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>87</v>
       </c>
       <c r="M17">
         <v>127451</v>
@@ -2211,10 +3741,10 @@
         <v>12600</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2232,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2250,57 +3780,147 @@
         <v>0</v>
       </c>
       <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>16.67</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>83.33</v>
       </c>
-      <c r="AD17">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>83.33</v>
+      </c>
+      <c r="AT17">
         <v>16.67</v>
       </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>16.67</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>83.33</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>83.33</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>16.67</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>498517</v>
+        <v>41645</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18">
         <v>202111</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>39902531</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>4029062315</v>
       </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18">
+        <v>86</v>
+      </c>
+      <c r="J18">
         <v>4574031000</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
       </c>
       <c r="M18">
         <v>124259</v>
@@ -2312,96 +3932,186 @@
         <v>5350</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>71.03</v>
       </c>
       <c r="Q18">
+        <v>28.97</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>25.7</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>25.7</v>
+      </c>
+      <c r="V18">
         <v>19.63</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>28.97</v>
+      </c>
+      <c r="Y18">
+        <v>54.67</v>
+      </c>
+      <c r="Z18">
+        <v>45.33</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>19.63</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>80.37</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>80.37</v>
       </c>
-      <c r="AD18">
+      <c r="AT18">
         <v>19.63</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>100</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>100</v>
+      </c>
+      <c r="BG18">
+        <v>80.37</v>
+      </c>
+      <c r="BH18">
+        <v>80.37</v>
+      </c>
+      <c r="BI18">
+        <v>80.37</v>
+      </c>
+      <c r="BJ18">
+        <v>50</v>
+      </c>
+      <c r="BK18">
+        <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>520836</v>
+        <v>43497</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
         <v>202112</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>39902531</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>4029062315</v>
       </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19">
+        <v>86</v>
+      </c>
+      <c r="J19">
         <v>4574031000</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>87</v>
       </c>
       <c r="M19">
         <v>321887</v>
@@ -2413,7 +4123,7 @@
         <v>31150</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2422,87 +4132,177 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>19.74</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>100</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>19.74</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>80.26000000000001</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>19.74</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>80.26000000000001</v>
       </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>19.74</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>19.74</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>543136</v>
+        <v>45346</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20">
         <v>202201</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2022</v>
       </c>
-      <c r="E20">
-        <v>39902531</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>4029062315</v>
       </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20">
+        <v>86</v>
+      </c>
+      <c r="J20">
         <v>4574031000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>87</v>
       </c>
       <c r="M20">
         <v>37216</v>
@@ -2514,7 +4314,7 @@
         <v>3600</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2523,87 +4323,177 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>20.83</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>79.17</v>
       </c>
-      <c r="T20">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>100</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>79.17</v>
+      </c>
+      <c r="AJ20">
         <v>20.83</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>20.83</v>
       </c>
-      <c r="AD20">
+      <c r="AT20">
         <v>79.17</v>
       </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>79.17</v>
+      </c>
+      <c r="BC20">
+        <v>20.83</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>20.83</v>
+      </c>
+      <c r="BH20">
+        <v>20.83</v>
+      </c>
+      <c r="BI20">
+        <v>20.83</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>587800</v>
+        <v>49045</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21">
         <v>202203</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2022</v>
       </c>
-      <c r="E21">
-        <v>39902531</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>4029062315</v>
       </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21">
+        <v>86</v>
+      </c>
+      <c r="J21">
         <v>4574031000</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>87</v>
       </c>
       <c r="M21">
         <v>75944</v>
@@ -2615,96 +4505,186 @@
         <v>3450</v>
       </c>
       <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>26.09</v>
+      </c>
+      <c r="T21">
+        <v>40.58</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>7.25</v>
+      </c>
+      <c r="W21">
+        <v>26.09</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>59.42</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>40.58</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
         <v>52.17</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>7.25</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
         <v>40.58</v>
       </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
         <v>52.17</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>7.25</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
         <v>40.58</v>
       </c>
+      <c r="AX21">
+        <v>52.17</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>40.58</v>
+      </c>
+      <c r="BB21">
+        <v>7.25</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>52.17</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>100</v>
+      </c>
+      <c r="BH21">
+        <v>100</v>
+      </c>
+      <c r="BI21">
+        <v>100</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>632576</v>
+        <v>52766</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22">
         <v>202205</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2022</v>
       </c>
-      <c r="E22">
-        <v>39902531</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>4029062315</v>
       </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22">
+        <v>86</v>
+      </c>
+      <c r="J22">
         <v>4574031000</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>87</v>
       </c>
       <c r="M22">
         <v>273617</v>
@@ -2716,7 +4696,7 @@
         <v>26500</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2725,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>94.34</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2737,36 +4717,126 @@
         <v>0</v>
       </c>
       <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>94.34</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
         <v>5.66</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
         <v>94.34</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
+      <c r="AN22">
         <v>5.66</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>94.34</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>5.66</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>100</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>94.34</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
         <v>0</v>
       </c>
     </row>
